--- a/C.수질측정정보/용봉측정소_2401-2506월_sample.xlsx
+++ b/C.수질측정정보/용봉측정소_2401-2506월_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\WAM_Analysis\C.수질측정정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E0ADB7-1FF7-458C-A1F3-E34AB4616F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C976E4E-AF60-49BB-9217-E32062E21D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89ED5A55-0C4F-450C-9500-7B01371E30D6}"/>
   </bookViews>
@@ -538,13 +538,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD40BE8-7E47-4970-85C1-8825BDDD7FF4}">
   <dimension ref="A1:AE259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
